--- a/output/科创债ETF_累计结果.xlsx
+++ b/output/科创债ETF_累计结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>2025/11/12</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>2025/11/17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025/11/24</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2025/11/25</t>
         </is>
       </c>
     </row>
@@ -462,6 +482,18 @@
       <c r="C2" t="n">
         <v>59</v>
       </c>
+      <c r="D2" t="n">
+        <v>59</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -473,6 +505,10 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -486,6 +522,18 @@
       <c r="C4" t="n">
         <v>59</v>
       </c>
+      <c r="D4" t="n">
+        <v>59</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>59</v>
+      </c>
+      <c r="G4" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -499,6 +547,18 @@
       <c r="C5" t="n">
         <v>59</v>
       </c>
+      <c r="D5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -510,6 +570,10 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -521,6 +585,10 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -532,7 +600,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -545,6 +625,10 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -556,6 +640,10 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -569,6 +657,18 @@
       <c r="C11" t="n">
         <v>59</v>
       </c>
+      <c r="D11" t="n">
+        <v>59</v>
+      </c>
+      <c r="E11" t="n">
+        <v>59</v>
+      </c>
+      <c r="F11" t="n">
+        <v>59</v>
+      </c>
+      <c r="G11" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -580,6 +680,10 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -591,6 +695,10 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -602,6 +710,10 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -615,6 +727,18 @@
       <c r="C15" t="n">
         <v>59</v>
       </c>
+      <c r="D15" t="n">
+        <v>59</v>
+      </c>
+      <c r="E15" t="n">
+        <v>59</v>
+      </c>
+      <c r="F15" t="n">
+        <v>59</v>
+      </c>
+      <c r="G15" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -626,6 +750,10 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -637,6 +765,10 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -648,6 +780,10 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -659,6 +795,10 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -670,6 +810,10 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -681,6 +825,10 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -692,6 +840,10 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -703,6 +855,10 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -714,6 +870,10 @@
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -725,6 +885,10 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/科创债ETF_累计结果.xlsx
+++ b/output/科创债ETF_累计结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>2025/11/13</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>2025/11/17</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>2025/11/21</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2025/11/24</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2025/11/25</t>
         </is>
@@ -492,6 +497,9 @@
         <v>59</v>
       </c>
       <c r="G2" t="n">
+        <v>59</v>
+      </c>
+      <c r="H2" t="n">
         <v>59</v>
       </c>
     </row>
@@ -509,6 +517,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -534,6 +543,9 @@
       <c r="G4" t="n">
         <v>59</v>
       </c>
+      <c r="H4" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -557,6 +569,9 @@
         <v>59</v>
       </c>
       <c r="G5" t="n">
+        <v>59</v>
+      </c>
+      <c r="H5" t="n">
         <v>59</v>
       </c>
     </row>
@@ -574,6 +589,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -589,6 +605,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -603,15 +620,18 @@
         <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
         <v>60</v>
       </c>
       <c r="G8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H8" t="n">
         <v>60</v>
       </c>
     </row>
@@ -629,6 +649,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -644,6 +665,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -667,6 +689,9 @@
         <v>59</v>
       </c>
       <c r="G11" t="n">
+        <v>59</v>
+      </c>
+      <c r="H11" t="n">
         <v>59</v>
       </c>
     </row>
@@ -684,6 +709,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -699,6 +725,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -714,6 +741,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -737,6 +765,9 @@
         <v>59</v>
       </c>
       <c r="G15" t="n">
+        <v>59</v>
+      </c>
+      <c r="H15" t="n">
         <v>59</v>
       </c>
     </row>
@@ -754,6 +785,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -769,6 +801,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -784,6 +817,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -799,6 +833,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -814,6 +849,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -829,6 +865,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -844,6 +881,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -859,6 +897,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -874,6 +913,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -889,6 +929,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/科创债ETF_累计结果.xlsx
+++ b/output/科创债ETF_累计结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>2025/11/25</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2025/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -500,6 +505,9 @@
         <v>59</v>
       </c>
       <c r="H2" t="n">
+        <v>59</v>
+      </c>
+      <c r="I2" t="n">
         <v>59</v>
       </c>
     </row>
@@ -518,6 +526,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -546,6 +555,9 @@
       <c r="H4" t="n">
         <v>59</v>
       </c>
+      <c r="I4" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -572,6 +584,9 @@
         <v>59</v>
       </c>
       <c r="H5" t="n">
+        <v>59</v>
+      </c>
+      <c r="I5" t="n">
         <v>59</v>
       </c>
     </row>
@@ -590,6 +605,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -606,6 +622,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -633,6 +650,9 @@
       </c>
       <c r="H8" t="n">
         <v>60</v>
+      </c>
+      <c r="I8" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -650,6 +670,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +687,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -692,6 +714,9 @@
         <v>59</v>
       </c>
       <c r="H11" t="n">
+        <v>59</v>
+      </c>
+      <c r="I11" t="n">
         <v>59</v>
       </c>
     </row>
@@ -710,6 +735,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -726,6 +752,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -742,6 +769,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -768,6 +796,9 @@
         <v>59</v>
       </c>
       <c r="H15" t="n">
+        <v>59</v>
+      </c>
+      <c r="I15" t="n">
         <v>59</v>
       </c>
     </row>
@@ -786,6 +817,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -802,6 +834,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -818,6 +851,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -834,6 +868,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -850,6 +885,9 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -866,6 +904,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -882,6 +921,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -898,6 +938,9 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -914,6 +957,9 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -930,6 +976,9 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0.59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/科创债ETF_累计结果.xlsx
+++ b/output/科创债ETF_累计结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,36 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2025/11/13</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2025/11/17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2025/11/21</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2025/11/24</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2025/11/25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>2025/11/26</t>
         </is>
       </c>
@@ -492,24 +462,6 @@
       <c r="C2" t="n">
         <v>59</v>
       </c>
-      <c r="D2" t="n">
-        <v>59</v>
-      </c>
-      <c r="E2" t="n">
-        <v>59</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59</v>
-      </c>
-      <c r="G2" t="n">
-        <v>59</v>
-      </c>
-      <c r="H2" t="n">
-        <v>59</v>
-      </c>
-      <c r="I2" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -521,12 +473,6 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -540,24 +486,6 @@
       <c r="C4" t="n">
         <v>59</v>
       </c>
-      <c r="D4" t="n">
-        <v>59</v>
-      </c>
-      <c r="E4" t="n">
-        <v>59</v>
-      </c>
-      <c r="F4" t="n">
-        <v>59</v>
-      </c>
-      <c r="G4" t="n">
-        <v>59</v>
-      </c>
-      <c r="H4" t="n">
-        <v>59</v>
-      </c>
-      <c r="I4" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -571,24 +499,6 @@
       <c r="C5" t="n">
         <v>59</v>
       </c>
-      <c r="D5" t="n">
-        <v>59</v>
-      </c>
-      <c r="E5" t="n">
-        <v>59</v>
-      </c>
-      <c r="F5" t="n">
-        <v>59</v>
-      </c>
-      <c r="G5" t="n">
-        <v>59</v>
-      </c>
-      <c r="H5" t="n">
-        <v>59</v>
-      </c>
-      <c r="I5" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -600,12 +510,6 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -617,12 +521,6 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -634,24 +532,6 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60</v>
-      </c>
-      <c r="E8" t="n">
-        <v>59</v>
-      </c>
-      <c r="F8" t="n">
-        <v>60</v>
-      </c>
-      <c r="G8" t="n">
-        <v>60</v>
-      </c>
-      <c r="H8" t="n">
-        <v>60</v>
-      </c>
-      <c r="I8" t="n">
         <v>59</v>
       </c>
     </row>
@@ -665,12 +545,6 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -682,12 +556,6 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -701,24 +569,6 @@
       <c r="C11" t="n">
         <v>59</v>
       </c>
-      <c r="D11" t="n">
-        <v>59</v>
-      </c>
-      <c r="E11" t="n">
-        <v>59</v>
-      </c>
-      <c r="F11" t="n">
-        <v>59</v>
-      </c>
-      <c r="G11" t="n">
-        <v>59</v>
-      </c>
-      <c r="H11" t="n">
-        <v>59</v>
-      </c>
-      <c r="I11" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -730,12 +580,6 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -747,12 +591,6 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -764,12 +602,6 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -783,24 +615,6 @@
       <c r="C15" t="n">
         <v>59</v>
       </c>
-      <c r="D15" t="n">
-        <v>59</v>
-      </c>
-      <c r="E15" t="n">
-        <v>59</v>
-      </c>
-      <c r="F15" t="n">
-        <v>59</v>
-      </c>
-      <c r="G15" t="n">
-        <v>59</v>
-      </c>
-      <c r="H15" t="n">
-        <v>59</v>
-      </c>
-      <c r="I15" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -812,12 +626,6 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -829,12 +637,6 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,12 +648,6 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -863,12 +659,6 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -879,14 +669,8 @@
           <t>科创债ETF平安</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>0.6</v>
+      <c r="C20" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -899,12 +683,6 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -916,12 +694,6 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -932,14 +704,8 @@
           <t>科创债ETF富国</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="n">
-        <v>0.6</v>
+      <c r="C23" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -951,14 +717,8 @@
           <t>科创债ETF嘉实</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
-        <v>0.59</v>
+      <c r="C24" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -970,14 +730,8 @@
           <t>科创债ETF南方</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="n">
-        <v>0.59</v>
+      <c r="C25" t="n">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/output/科创债ETF_累计结果.xlsx
+++ b/output/科创债ETF_累计结果.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,26 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>2025/11/17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2025/11/21</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2025/11/24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025/11/25</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>2025/11/26</t>
         </is>
       </c>
@@ -462,6 +482,18 @@
       <c r="C2" t="n">
         <v>59</v>
       </c>
+      <c r="D2" t="n">
+        <v>59</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -473,6 +505,10 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -486,6 +522,18 @@
       <c r="C4" t="n">
         <v>59</v>
       </c>
+      <c r="D4" t="n">
+        <v>59</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>59</v>
+      </c>
+      <c r="G4" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -499,6 +547,18 @@
       <c r="C5" t="n">
         <v>59</v>
       </c>
+      <c r="D5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E5" t="n">
+        <v>59</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -510,6 +570,10 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -521,6 +585,10 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -534,6 +602,18 @@
       <c r="C8" t="n">
         <v>59</v>
       </c>
+      <c r="D8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60</v>
+      </c>
+      <c r="G8" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -545,6 +625,10 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -556,6 +640,10 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -569,6 +657,18 @@
       <c r="C11" t="n">
         <v>59</v>
       </c>
+      <c r="D11" t="n">
+        <v>59</v>
+      </c>
+      <c r="E11" t="n">
+        <v>59</v>
+      </c>
+      <c r="F11" t="n">
+        <v>59</v>
+      </c>
+      <c r="G11" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -580,6 +680,10 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -591,6 +695,10 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -602,6 +710,10 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -615,6 +727,18 @@
       <c r="C15" t="n">
         <v>59</v>
       </c>
+      <c r="D15" t="n">
+        <v>59</v>
+      </c>
+      <c r="E15" t="n">
+        <v>59</v>
+      </c>
+      <c r="F15" t="n">
+        <v>59</v>
+      </c>
+      <c r="G15" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -626,6 +750,10 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -637,6 +765,10 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -648,6 +780,10 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -659,6 +795,10 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -669,7 +809,11 @@
           <t>科创债ETF平安</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
         <v>60</v>
       </c>
     </row>
@@ -683,6 +827,10 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -694,6 +842,10 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -704,7 +856,11 @@
           <t>科创债ETF富国</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
         <v>60</v>
       </c>
     </row>
@@ -717,7 +873,11 @@
           <t>科创债ETF嘉实</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
         <v>59</v>
       </c>
     </row>
@@ -730,7 +890,11 @@
           <t>科创债ETF南方</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
         <v>59</v>
       </c>
     </row>
